--- a/lib/option_sets/currency.xlsx
+++ b/lib/option_sets/currency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Dropbox\FlexUp\Shared\Bubble MVP\Options Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364EBF2F-9DDC-45A3-BED7-ADCB84FCD456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93F7C9-150E-402F-B01E-DC943EF87D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{007C9350-5B0C-4E1D-A9B1-B9BC1510CF5B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{007C9350-5B0C-4E1D-A9B1-B9BC1510CF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="currency" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="602">
   <si>
     <t>ID</t>
   </si>
@@ -1859,7 +1859,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1870,11 +1870,6 @@
       <sz val="10"/>
       <name val="Open Sans"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Nunito Light"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1903,7 +1898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1917,16 +1912,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2261,22 +2246,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157C8320-4AD4-4048-9926-91F99226D8DB}">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="12.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="28.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.59765625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="28.265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.86328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>593</v>
       </c>
@@ -2299,7 +2284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2322,7 +2307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2368,7 +2353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -2391,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2414,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -2437,7 +2422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2460,7 +2445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2483,7 +2468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -2506,7 +2491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2529,7 +2514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -2552,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -2575,7 +2560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2598,7 +2583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -2621,7 +2606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -2644,7 +2629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -2667,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -2690,7 +2675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -2713,7 +2698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -2736,7 +2721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -2759,7 +2744,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -2782,7 +2767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -2805,7 +2790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
@@ -2828,7 +2813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>99</v>
       </c>
@@ -2851,7 +2836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>102</v>
       </c>
@@ -2874,7 +2859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>105</v>
       </c>
@@ -2897,7 +2882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
@@ -2920,7 +2905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
@@ -2943,7 +2928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>114</v>
       </c>
@@ -2966,7 +2951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
@@ -2989,7 +2974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>120</v>
       </c>
@@ -3012,7 +2997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>123</v>
       </c>
@@ -3035,7 +3020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>127</v>
       </c>
@@ -3058,7 +3043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>131</v>
       </c>
@@ -3081,7 +3066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
         <v>135</v>
       </c>
@@ -3104,7 +3089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>139</v>
       </c>
@@ -3127,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
@@ -3150,7 +3135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>147</v>
       </c>
@@ -3173,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>151</v>
       </c>
@@ -3196,7 +3181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>155</v>
       </c>
@@ -3219,7 +3204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>159</v>
       </c>
@@ -3242,7 +3227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>162</v>
       </c>
@@ -3265,7 +3250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
         <v>166</v>
       </c>
@@ -3288,7 +3273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>169</v>
       </c>
@@ -3311,7 +3296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>173</v>
       </c>
@@ -3334,7 +3319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>176</v>
       </c>
@@ -3357,7 +3342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>181</v>
       </c>
@@ -3380,7 +3365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>184</v>
       </c>
@@ -3403,7 +3388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>187</v>
       </c>
@@ -3426,7 +3411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
         <v>191</v>
       </c>
@@ -3449,7 +3434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>194</v>
       </c>
@@ -3472,7 +3457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
         <v>197</v>
       </c>
@@ -3495,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>202</v>
       </c>
@@ -3518,7 +3503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>206</v>
       </c>
@@ -3541,7 +3526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>210</v>
       </c>
@@ -3564,7 +3549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>213</v>
       </c>
@@ -3587,7 +3572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>217</v>
       </c>
@@ -3610,7 +3595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>221</v>
       </c>
@@ -3630,7 +3615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>224</v>
       </c>
@@ -3653,7 +3638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>227</v>
       </c>
@@ -3676,7 +3661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>230</v>
       </c>
@@ -3699,7 +3684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>233</v>
       </c>
@@ -3722,7 +3707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
         <v>237</v>
       </c>
@@ -3745,7 +3730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
         <v>241</v>
       </c>
@@ -3768,7 +3753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>245</v>
       </c>
@@ -3791,7 +3776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
         <v>250</v>
       </c>
@@ -3814,7 +3799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
         <v>252</v>
       </c>
@@ -3834,7 +3819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>255</v>
       </c>
@@ -3857,7 +3842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>258</v>
       </c>
@@ -3877,7 +3862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>261</v>
       </c>
@@ -3900,7 +3885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>264</v>
       </c>
@@ -3923,7 +3908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>269</v>
       </c>
@@ -3946,7 +3931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>273</v>
       </c>
@@ -3969,7 +3954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
         <v>276</v>
       </c>
@@ -3992,7 +3977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
         <v>280</v>
       </c>
@@ -4015,7 +4000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
         <v>284</v>
       </c>
@@ -4038,7 +4023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
         <v>288</v>
       </c>
@@ -4061,7 +4046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
         <v>292</v>
       </c>
@@ -4084,7 +4069,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
         <v>296</v>
       </c>
@@ -4107,7 +4092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
         <v>299</v>
       </c>
@@ -4130,7 +4115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
         <v>303</v>
       </c>
@@ -4153,7 +4138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
         <v>306</v>
       </c>
@@ -4176,7 +4161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
         <v>309</v>
       </c>
@@ -4199,7 +4184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
         <v>313</v>
       </c>
@@ -4222,7 +4207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
         <v>317</v>
       </c>
@@ -4245,7 +4230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
         <v>321</v>
       </c>
@@ -4268,7 +4253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
         <v>325</v>
       </c>
@@ -4291,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
         <v>329</v>
       </c>
@@ -4314,7 +4299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
         <v>333</v>
       </c>
@@ -4337,7 +4322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
         <v>336</v>
       </c>
@@ -4360,7 +4345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
         <v>340</v>
       </c>
@@ -4383,7 +4368,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
         <v>346</v>
       </c>
@@ -4406,7 +4391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
         <v>350</v>
       </c>
@@ -4429,7 +4414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
         <v>352</v>
       </c>
@@ -4452,7 +4437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
         <v>356</v>
       </c>
@@ -4475,7 +4460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
         <v>360</v>
       </c>
@@ -4498,7 +4483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
         <v>363</v>
       </c>
@@ -4521,7 +4506,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
         <v>367</v>
       </c>
@@ -4544,7 +4529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
         <v>371</v>
       </c>
@@ -4567,7 +4552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
         <v>375</v>
       </c>
@@ -4590,7 +4575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
         <v>378</v>
       </c>
@@ -4613,7 +4598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
         <v>381</v>
       </c>
@@ -4636,7 +4621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
         <v>385</v>
       </c>
@@ -4659,7 +4644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
         <v>390</v>
       </c>
@@ -4682,7 +4667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
         <v>393</v>
       </c>
@@ -4705,7 +4690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
         <v>397</v>
       </c>
@@ -4728,7 +4713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
         <v>401</v>
       </c>
@@ -4751,7 +4736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
         <v>404</v>
       </c>
@@ -4774,7 +4759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
         <v>408</v>
       </c>
@@ -4797,7 +4782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
         <v>412</v>
       </c>
@@ -4820,7 +4805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
         <v>415</v>
       </c>
@@ -4843,7 +4828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
         <v>419</v>
       </c>
@@ -4866,7 +4851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
         <v>423</v>
       </c>
@@ -4889,7 +4874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
         <v>426</v>
       </c>
@@ -4912,7 +4897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
         <v>430</v>
       </c>
@@ -4935,7 +4920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
         <v>434</v>
       </c>
@@ -4957,11 +4942,8 @@
       <c r="G117" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-    </row>
-    <row r="118" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
         <v>438</v>
       </c>
@@ -4983,11 +4965,8 @@
       <c r="G118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="6"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-    </row>
-    <row r="119" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
         <v>442</v>
       </c>
@@ -5009,17 +4988,8 @@
       <c r="G119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K119" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="L119" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
         <v>445</v>
       </c>
@@ -5041,17 +5011,8 @@
       <c r="G120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L120" s="5">
-        <v>985</v>
-      </c>
-      <c r="M120" s="5">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2" t="s">
         <v>449</v>
       </c>
@@ -5073,17 +5034,8 @@
       <c r="G121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L121" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
         <v>453</v>
       </c>
@@ -5105,17 +5057,8 @@
       <c r="G122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L122" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
         <v>456</v>
       </c>
@@ -5137,17 +5080,8 @@
       <c r="G123" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L123" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
         <v>459</v>
       </c>
@@ -5169,17 +5103,8 @@
       <c r="G124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K124" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L124" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
         <v>462</v>
       </c>
@@ -5201,17 +5126,8 @@
       <c r="G125" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L125" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="M125" s="8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
         <v>466</v>
       </c>
@@ -5233,10 +5149,8 @@
       <c r="G126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="5"/>
-      <c r="M126" s="6"/>
-    </row>
-    <row r="127" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
         <v>469</v>
       </c>
@@ -5258,10 +5172,8 @@
       <c r="G127" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="5"/>
-      <c r="M127" s="7"/>
-    </row>
-    <row r="128" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
         <v>472</v>
       </c>
@@ -5283,10 +5195,8 @@
       <c r="G128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="5"/>
-      <c r="M128" s="7"/>
-    </row>
-    <row r="129" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
         <v>475</v>
       </c>
@@ -5308,10 +5218,8 @@
       <c r="G129" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="5"/>
-      <c r="M129" s="7"/>
-    </row>
-    <row r="130" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
         <v>478</v>
       </c>
@@ -5333,10 +5241,8 @@
       <c r="G130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="5"/>
-      <c r="M130" s="7"/>
-    </row>
-    <row r="131" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
         <v>482</v>
       </c>
@@ -5358,10 +5264,8 @@
       <c r="G131" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="5"/>
-      <c r="M131" s="7"/>
-    </row>
-    <row r="132" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
         <v>485</v>
       </c>
@@ -5383,10 +5287,8 @@
       <c r="G132" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K132" s="8"/>
-      <c r="M132" s="7"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
         <v>489</v>
       </c>
@@ -5409,7 +5311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2" t="s">
         <v>493</v>
       </c>
@@ -5432,7 +5334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2" t="s">
         <v>497</v>
       </c>
@@ -5455,7 +5357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
         <v>500</v>
       </c>
@@ -5478,7 +5380,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2" t="s">
         <v>504</v>
       </c>
@@ -5501,7 +5403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2" t="s">
         <v>507</v>
       </c>
@@ -5524,7 +5426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2" t="s">
         <v>510</v>
       </c>
@@ -5547,7 +5449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2" t="s">
         <v>513</v>
       </c>
@@ -5570,7 +5472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2" t="s">
         <v>515</v>
       </c>
@@ -5593,7 +5495,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2" t="s">
         <v>518</v>
       </c>
@@ -5616,7 +5518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2" t="s">
         <v>522</v>
       </c>
@@ -5639,7 +5541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2" t="s">
         <v>526</v>
       </c>
@@ -5662,7 +5564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2" t="s">
         <v>529</v>
       </c>
@@ -5685,7 +5587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2" t="s">
         <v>533</v>
       </c>
@@ -5708,7 +5610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2" t="s">
         <v>536</v>
       </c>
@@ -5731,7 +5633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2" t="s">
         <v>540</v>
       </c>
@@ -5754,7 +5656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2" t="s">
         <v>543</v>
       </c>
@@ -5777,7 +5679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2" t="s">
         <v>547</v>
       </c>
@@ -5800,7 +5702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2" t="s">
         <v>550</v>
       </c>
@@ -5820,7 +5722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2" t="s">
         <v>553</v>
       </c>
@@ -5843,7 +5745,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2" t="s">
         <v>558</v>
       </c>
@@ -5866,7 +5768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2" t="s">
         <v>561</v>
       </c>
@@ -5889,7 +5791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2" t="s">
         <v>564</v>
       </c>
@@ -5912,7 +5814,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2" t="s">
         <v>569</v>
       </c>
@@ -5935,7 +5837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2" t="s">
         <v>573</v>
       </c>
@@ -5955,7 +5857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2" t="s">
         <v>576</v>
       </c>
@@ -5978,7 +5880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2" t="s">
         <v>579</v>
       </c>
@@ -6001,7 +5903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2" t="s">
         <v>582</v>
       </c>
@@ -6024,7 +5926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2" t="s">
         <v>587</v>
       </c>
@@ -6047,7 +5949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2" t="s">
         <v>590</v>
       </c>
@@ -6070,7 +5972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2" t="s">
         <v>594</v>
       </c>
@@ -6093,7 +5995,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2" t="s">
         <v>598</v>
       </c>
